--- a/Gantt charts/Group_6_Project_Schedule.xlsx
+++ b/Gantt charts/Group_6_Project_Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wael/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acplivermore-my.sharepoint.com/personal/esolomon_acpcomposites_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D620DC-47DF-0D4E-80C5-17248752E79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89040B99-8EDF-4E94-9AF8-8197587CDE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>Third Project Presentation - Phase 2
-Deadline: Submission of Project Phase 2 Delieverables (End of Design Phase)</t>
+Deadline: Submission of Project Phase 2 Delieverables (End of Design Phase - Phase 2)</t>
   </si>
 </sst>
 </file>
@@ -245,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -253,16 +253,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,6 +272,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,28 +618,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.47265625" customWidth="1"/>
+    <col min="3" max="3" width="24.3125" customWidth="1"/>
+    <col min="4" max="4" width="51.15625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="28.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -654,17 +653,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>45887</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>45889</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1"/>
@@ -673,34 +672,34 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+    <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>45894</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>45896</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+    <row r="5" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>45901</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>45903</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1"/>
@@ -709,68 +708,68 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+    <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>45908</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>45910</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+    <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>45915</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>45917</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+    <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>45922</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>45924</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+    <row r="9" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="6">
         <v>45929</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>45931</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1"/>
@@ -779,68 +778,68 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <v>45936</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>45938</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>45943</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>45945</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+    <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>45950</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>45952</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+    <row r="13" spans="1:9" ht="53.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="8">
         <v>45957</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="8">
         <v>45959</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1"/>
@@ -849,85 +848,85 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+    <row r="14" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>45964</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>45966</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+    <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="6">
         <v>45971</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <v>45973</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+    <row r="16" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <v>45978</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>45980</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="6">
         <v>45985</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>45987</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+    <row r="18" spans="1:9" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="8">
         <v>45992</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="8">
         <v>45994</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="1"/>
@@ -936,17 +935,17 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+    <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="6">
         <v>45999</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="6">
         <v>46001</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -963,6 +962,7 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{9860db96-b53f-4bd7-8137-e09357cab268}" enabled="1" method="Standard" siteId="{b78d03e6-f6a2-4cff-83be-847d1a6453f9}" contentBits="0" removed="0"/>
+  <clbl:label id="{9860db96-b53f-4bd7-8137-e09357cab268}" enabled="1" method="Standard" siteId="{b78d03e6-f6a2-4cff-83be-847d1a6453f9}" removed="0"/>
+  <clbl:label id="{fed52cc1-e6a4-4fea-99ab-e516247eb8b2}" enabled="0" method="" siteId="{fed52cc1-e6a4-4fea-99ab-e516247eb8b2}" removed="1"/>
 </clbl:labelList>
 </file>
--- a/Gantt charts/Group_6_Project_Schedule.xlsx
+++ b/Gantt charts/Group_6_Project_Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acplivermore-my.sharepoint.com/personal/esolomon_acpcomposites_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acplivermore-my.sharepoint.com/personal/esolomon_acpcomposites_com/Documents/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89040B99-8EDF-4E94-9AF8-8197587CDE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC73BA57-05D7-4CF0-A132-8216B4948D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="915" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Group 6 Project Schedule</t>
   </si>
@@ -72,6 +72,27 @@
   <si>
     <t>Third Project Presentation - Phase 2
 Deadline: Submission of Project Phase 2 Delieverables (End of Design Phase - Phase 2)</t>
+  </si>
+  <si>
+    <t>Requirements Gathering</t>
+  </si>
+  <si>
+    <t>SRS Review and Acknowledgment</t>
+  </si>
+  <si>
+    <t>SRS Finalization &amp; First Project Presentation</t>
+  </si>
+  <si>
+    <t>Requirements Analysis &amp; Modeling SRS Draft Build Up</t>
+  </si>
+  <si>
+    <t>System Architecture Design</t>
+  </si>
+  <si>
+    <t>UML Diagram</t>
+  </si>
+  <si>
+    <t>Interface Design &amp; Detailed Component Build Up</t>
   </si>
 </sst>
 </file>
@@ -245,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -281,6 +302,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,20 +642,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.47265625" customWidth="1"/>
-    <col min="3" max="3" width="24.3125" customWidth="1"/>
-    <col min="4" max="4" width="51.15625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="28.47265625" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -639,7 +663,7 @@
       <c r="C1" s="14"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -653,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -672,7 +696,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -682,14 +706,16 @@
       <c r="C4" s="6">
         <v>45896</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -708,7 +734,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -718,14 +744,16 @@
       <c r="C6" s="6">
         <v>45910</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -735,14 +763,16 @@
       <c r="C7" s="6">
         <v>45917</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -752,14 +782,16 @@
       <c r="C8" s="6">
         <v>45924</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -778,7 +810,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -788,14 +820,16 @@
       <c r="C10" s="6">
         <v>45938</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -805,14 +839,16 @@
       <c r="C11" s="6">
         <v>45945</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -822,14 +858,16 @@
       <c r="C12" s="6">
         <v>45952</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="53.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -848,7 +886,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -865,7 +903,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -882,7 +920,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -899,7 +937,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -916,7 +954,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -935,7 +973,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -957,6 +995,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Gantt charts/Group_6_Project_Schedule.xlsx
+++ b/Gantt charts/Group_6_Project_Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acplivermore-my.sharepoint.com/personal/esolomon_acpcomposites_com/Documents/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC73BA57-05D7-4CF0-A132-8216B4948D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{8E14B75F-E4F1-40F9-BF24-21738C30172A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28F58D39-AB23-4DA8-BBF5-261CE611176F}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="915" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31185" yWindow="1800" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,23 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$19</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -62,37 +46,37 @@
     <t>First Project Presentation</t>
   </si>
   <si>
+    <t>Second Project Presentation - Phase 1
+Deadline: Submission of Project Phase 1 Delieverables (End of Requirements Phase)</t>
+  </si>
+  <si>
+    <t>Third Project Presentation - Phase 2
+Deadline: Submission of Project Phase 2 Delieverables (End of Design Phase - Phase 2)</t>
+  </si>
+  <si>
     <t>Final Project Presentation - Phase 3
 Deadline: Submission of Project Phase 3 Delieverables (End of Implementation Phase)</t>
   </si>
   <si>
-    <t>Second Project Presentation - Phase 1
-Deadline: Submission of Project Phase 1 Delieverables (End of Requirements Phase)</t>
-  </si>
-  <si>
-    <t>Third Project Presentation - Phase 2
-Deadline: Submission of Project Phase 2 Delieverables (End of Design Phase - Phase 2)</t>
-  </si>
-  <si>
-    <t>Requirements Gathering</t>
-  </si>
-  <si>
-    <t>SRS Review and Acknowledgment</t>
-  </si>
-  <si>
-    <t>SRS Finalization &amp; First Project Presentation</t>
-  </si>
-  <si>
-    <t>Requirements Analysis &amp; Modeling SRS Draft Build Up</t>
-  </si>
-  <si>
-    <t>System Architecture Design</t>
-  </si>
-  <si>
-    <t>UML Diagram</t>
-  </si>
-  <si>
-    <t>Interface Design &amp; Detailed Component Build Up</t>
+    <t>UML Diagram Build Up</t>
+  </si>
+  <si>
+    <t>Gathering Requirements</t>
+  </si>
+  <si>
+    <t>Assessing Requirements &amp; shaping SRS version</t>
+  </si>
+  <si>
+    <t>Finalizing SRS &amp; Phase 1 Project Presentation</t>
+  </si>
+  <si>
+    <t>Designing of System Architecture</t>
+  </si>
+  <si>
+    <t>Designing Interface &amp; Building up Components</t>
+  </si>
+  <si>
+    <t>Reviewing SRS and Acknowledgment</t>
   </si>
 </sst>
 </file>
@@ -193,17 +177,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -257,6 +230,19 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
@@ -266,14 +252,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,18 +280,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,6 +300,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,15 +625,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
@@ -707,7 +690,7 @@
         <v>45896</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -745,7 +728,7 @@
         <v>45910</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -764,7 +747,7 @@
         <v>45917</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -783,7 +766,7 @@
         <v>45924</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -802,7 +785,7 @@
         <v>45931</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -829,7 +812,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -839,8 +822,8 @@
       <c r="C11" s="6">
         <v>45945</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>16</v>
+      <c r="D11" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -848,7 +831,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -858,8 +841,8 @@
       <c r="C12" s="6">
         <v>45952</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>15</v>
+      <c r="D12" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -878,7 +861,7 @@
         <v>45959</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -954,7 +937,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -965,7 +948,7 @@
         <v>45994</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -995,13 +978,11 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{9860db96-b53f-4bd7-8137-e09357cab268}" enabled="1" method="Standard" siteId="{b78d03e6-f6a2-4cff-83be-847d1a6453f9}" removed="0"/>
   <clbl:label id="{fed52cc1-e6a4-4fea-99ab-e516247eb8b2}" enabled="0" method="" siteId="{fed52cc1-e6a4-4fea-99ab-e516247eb8b2}" removed="1"/>
 </clbl:labelList>
 </file>